--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['22', '28', '72']</t>
+  </si>
+  <si>
+    <t>['18', '43', '90+4']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1435,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1814,7 +1817,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2005,7 +2008,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2196,7 +2199,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2387,7 +2390,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2578,7 +2581,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2769,7 +2772,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2960,7 +2963,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3151,7 +3154,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3533,7 +3536,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3724,7 +3727,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3814,7 +3817,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3915,7 +3918,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4002,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
         <v>1.45</v>
@@ -4106,7 +4109,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4297,7 +4300,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4488,7 +4491,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4870,7 +4873,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5443,7 +5446,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5634,7 +5637,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5825,7 +5828,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5912,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
         <v>2</v>
@@ -6016,7 +6019,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6207,7 +6210,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6297,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6398,7 +6401,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6589,7 +6592,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6780,7 +6783,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6971,7 +6974,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7162,7 +7165,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7353,7 +7356,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7544,7 +7547,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7926,7 +7929,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8308,7 +8311,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8499,7 +8502,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -8881,7 +8884,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9072,7 +9075,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9162,7 +9165,7 @@
         <v>0.55</v>
       </c>
       <c r="AT42">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9836,7 +9839,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10027,7 +10030,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10114,7 +10117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT47">
         <v>0.63</v>
@@ -10409,7 +10412,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10600,7 +10603,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10982,7 +10985,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11173,7 +11176,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11555,7 +11558,7 @@
         <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11746,7 +11749,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11937,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12319,7 +12322,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12406,7 +12409,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT59">
         <v>1.2</v>
@@ -12510,7 +12513,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12788,7 +12791,7 @@
         <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT61">
         <v>1.09</v>
@@ -12892,7 +12895,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13083,7 +13086,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13274,7 +13277,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13465,7 +13468,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13656,7 +13659,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13847,7 +13850,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14420,7 +14423,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14611,7 +14614,7 @@
         <v>82</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14701,7 +14704,7 @@
         <v>1.09</v>
       </c>
       <c r="AT71">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14802,7 +14805,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14993,7 +14996,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15566,7 +15569,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15757,7 +15760,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15948,7 +15951,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16139,7 +16142,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16417,7 +16420,7 @@
         <v>0.4</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
         <v>0.82</v>
@@ -16521,7 +16524,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16903,7 +16906,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17094,7 +17097,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17476,7 +17479,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17667,7 +17670,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17858,7 +17861,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18049,7 +18052,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18240,7 +18243,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18518,7 +18521,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT91">
         <v>0.78</v>
@@ -18622,7 +18625,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18903,7 +18906,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU93">
         <v>1.53</v>
@@ -19004,7 +19007,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>10</v>
@@ -19195,7 +19198,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19577,7 +19580,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19768,7 +19771,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -19959,7 +19962,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20150,7 +20153,7 @@
         <v>118</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20341,7 +20344,7 @@
         <v>82</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20431,7 +20434,7 @@
         <v>1.4</v>
       </c>
       <c r="AT101">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20532,7 +20535,7 @@
         <v>139</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20723,7 +20726,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20810,7 +20813,7 @@
         <v>0.71</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20914,7 +20917,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21105,7 +21108,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21296,7 +21299,7 @@
         <v>82</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21487,7 +21490,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21869,7 +21872,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22060,7 +22063,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22442,7 +22445,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22532,7 +22535,7 @@
         <v>2.3</v>
       </c>
       <c r="AT112">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU112">
         <v>1.7</v>
@@ -22824,7 +22827,7 @@
         <v>118</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23015,7 +23018,7 @@
         <v>127</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23206,7 +23209,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -23397,7 +23400,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -24161,7 +24164,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24352,7 +24355,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24734,7 +24737,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24925,7 +24928,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25116,7 +25119,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25394,7 +25397,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT127">
         <v>1.13</v>
@@ -25498,7 +25501,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25689,7 +25692,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25880,7 +25883,7 @@
         <v>178</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26262,7 +26265,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26453,7 +26456,7 @@
         <v>108</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26734,7 +26737,7 @@
         <v>1.8</v>
       </c>
       <c r="AT134">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -26835,7 +26838,7 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -26977,6 +26980,197 @@
       </c>
       <c r="BK135">
         <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>3222217</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+      <c r="P136" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>-1</v>
+      </c>
+      <c r="S136">
+        <v>-1</v>
+      </c>
+      <c r="T136">
+        <v>2.27</v>
+      </c>
+      <c r="U136">
+        <v>2.55</v>
+      </c>
+      <c r="V136">
+        <v>4.16</v>
+      </c>
+      <c r="W136">
+        <v>1.22</v>
+      </c>
+      <c r="X136">
+        <v>3.8</v>
+      </c>
+      <c r="Y136">
+        <v>2.1</v>
+      </c>
+      <c r="Z136">
+        <v>1.71</v>
+      </c>
+      <c r="AA136">
+        <v>4.3</v>
+      </c>
+      <c r="AB136">
+        <v>1.18</v>
+      </c>
+      <c r="AC136">
+        <v>2</v>
+      </c>
+      <c r="AD136">
+        <v>3.55</v>
+      </c>
+      <c r="AE136">
+        <v>3.05</v>
+      </c>
+      <c r="AF136">
+        <v>1.01</v>
+      </c>
+      <c r="AG136">
+        <v>24</v>
+      </c>
+      <c r="AH136">
+        <v>1.13</v>
+      </c>
+      <c r="AI136">
+        <v>5.1</v>
+      </c>
+      <c r="AJ136">
+        <v>1.45</v>
+      </c>
+      <c r="AK136">
+        <v>2.48</v>
+      </c>
+      <c r="AL136">
+        <v>1.45</v>
+      </c>
+      <c r="AM136">
+        <v>2.66</v>
+      </c>
+      <c r="AN136">
+        <v>1.23</v>
+      </c>
+      <c r="AO136">
+        <v>1.22</v>
+      </c>
+      <c r="AP136">
+        <v>1.9</v>
+      </c>
+      <c r="AQ136">
+        <v>1.67</v>
+      </c>
+      <c r="AR136">
+        <v>1.75</v>
+      </c>
+      <c r="AS136">
+        <v>1.8</v>
+      </c>
+      <c r="AT136">
+        <v>1.56</v>
+      </c>
+      <c r="AU136">
+        <v>1.75</v>
+      </c>
+      <c r="AV136">
+        <v>1.65</v>
+      </c>
+      <c r="AW136">
+        <v>3.4</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>-1</v>
+      </c>
+      <c r="BG136">
+        <v>-1</v>
+      </c>
+      <c r="BH136">
+        <v>-1</v>
+      </c>
+      <c r="BI136">
+        <v>-1</v>
+      </c>
+      <c r="BJ136">
+        <v>-1</v>
+      </c>
+      <c r="BK136">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -556,7 +556,7 @@
     <t>['22', '28', '72']</t>
   </si>
   <si>
-    <t>['18', '43', '90+4']</t>
+    <t>['18', '43', '90+5']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -27032,13 +27032,13 @@
         <v>118</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T136">
         <v>2.27</v>
@@ -27155,22 +27155,22 @@
         <v>0</v>
       </c>
       <c r="BF136">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI136">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ136">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK136">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT12" t="n">
         <v>0.78</v>
@@ -3136,7 +3136,7 @@
         <v>2.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT25" t="n">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU26" t="n">
         <v>1.1</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU28" t="n">
         <v>1.01</v>
@@ -6384,7 +6384,7 @@
         <v>1.09</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU29" t="n">
         <v>0.77</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.68</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT38" t="n">
         <v>1.09</v>
@@ -8617,7 +8617,7 @@
         <v>2.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.69</v>
@@ -9023,7 +9023,7 @@
         <v>0.55</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9429,7 +9429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU44" t="n">
         <v>1.81</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT45" t="n">
         <v>0.82</v>
@@ -9832,7 +9832,7 @@
         <v>0.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT46" t="n">
         <v>1.2</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.22</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12068,7 +12068,7 @@
         <v>0.55</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT59" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>1.2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT61" t="n">
         <v>1.09</v>
@@ -13080,10 +13080,10 @@
         <v>1.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.37</v>
@@ -13489,7 +13489,7 @@
         <v>1.64</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU64" t="n">
         <v>1.77</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT69" t="n">
         <v>1.2</v>
@@ -14910,7 +14910,7 @@
         <v>1.09</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT72" t="n">
         <v>2.18</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -16128,7 +16128,7 @@
         <v>1.8</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT78" t="n">
         <v>0.78</v>
@@ -16534,7 +16534,7 @@
         <v>1.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU79" t="n">
         <v>1.88</v>
@@ -16734,7 +16734,7 @@
         <v>0.4</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT88" t="n">
         <v>2</v>
@@ -18767,7 +18767,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT91" t="n">
         <v>0.78</v>
@@ -19376,7 +19376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU93" t="n">
         <v>1.53</v>
@@ -19576,10 +19576,10 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU94" t="n">
         <v>1.43</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.24</v>
@@ -20794,10 +20794,10 @@
         <v>1.29</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU100" t="n">
         <v>1.6</v>
@@ -21200,7 +21200,7 @@
         <v>0.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -21812,7 +21812,7 @@
         <v>1.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU105" t="n">
         <v>1.75</v>
@@ -22215,10 +22215,10 @@
         <v>0.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU107" t="n">
         <v>1.72</v>
@@ -22421,7 +22421,7 @@
         <v>1.09</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU108" t="n">
         <v>1.01</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT109" t="n">
         <v>2.18</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
         <v>0.78</v>
@@ -23233,7 +23233,7 @@
         <v>2.3</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU112" t="n">
         <v>1.7</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT121" t="n">
         <v>1.09</v>
@@ -25466,7 +25466,7 @@
         <v>2.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -25669,7 +25669,7 @@
         <v>1.64</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -25869,10 +25869,10 @@
         <v>1.3</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT127" t="n">
         <v>2</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>0.88</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT132" t="n">
         <v>0.78</v>
@@ -27496,7 +27496,7 @@
         <v>1.8</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU133" t="n">
         <v>1.69</v>
@@ -28102,10 +28102,10 @@
         <v>1.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU136" t="n">
         <v>1.75</v>
@@ -28360,6 +28360,818 @@
       </c>
       <c r="BK137" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3222329</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45002.66666666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Chelsea U21</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Everton U21</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>6</v>
+      </c>
+      <c r="S138" t="n">
+        <v>15</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V138" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X138" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3222331</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45002.66666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur U21</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Leicester City U21</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['18', '24', '55']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>7</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X139" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3222328</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers U21</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Liverpool U21</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>5</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['32', '81']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['27', '42', '57']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>4</v>
+      </c>
+      <c r="R140" t="n">
+        <v>9</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3222342</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45003.57291666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>22</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Brighton U21</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Fulham U21</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -26438,7 +26438,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3222321</v>
+        <v>3222325</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26453,133 +26453,133 @@
         <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="P133" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="Q133">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R133">
         <v>4</v>
       </c>
       <c r="S133">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U133">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V133">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="X133">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="Y133">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="Z133">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AA133">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB133">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AC133">
-        <v>2.73</v>
+        <v>2.14</v>
       </c>
       <c r="AD133">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AE133">
-        <v>2.06</v>
+        <v>2.51</v>
       </c>
       <c r="AF133">
         <v>1.01</v>
       </c>
       <c r="AG133">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH133">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AI133">
-        <v>5.65</v>
+        <v>7.1</v>
       </c>
       <c r="AJ133">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AK133">
-        <v>2.45</v>
+        <v>2.89</v>
       </c>
       <c r="AL133">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AM133">
-        <v>3.03</v>
+        <v>3.6</v>
       </c>
       <c r="AN133">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO133">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR133">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="AU133">
         <v>1.69</v>
       </c>
       <c r="AV133">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AW133">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="AX133">
         <v>0</v>
@@ -26597,7 +26597,7 @@
         <v>0</v>
       </c>
       <c r="BC133">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BD133">
         <v>0</v>
@@ -26606,22 +26606,22 @@
         <v>0</v>
       </c>
       <c r="BF133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH133">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BI133">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ133">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BK133">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:63">
@@ -26629,7 +26629,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3222325</v>
+        <v>3222327</v>
       </c>
       <c r="C134" t="s">
         <v>63</v>
@@ -26644,10 +26644,10 @@
         <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H134" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -26659,118 +26659,118 @@
         <v>1</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S134">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T134">
         <v>2.88</v>
       </c>
       <c r="U134">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V134">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W134">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X134">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Y134">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="Z134">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AA134">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB134">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AC134">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="AD134">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="AE134">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="AF134">
         <v>1.01</v>
       </c>
       <c r="AG134">
-        <v>20</v>
+        <v>25.5</v>
       </c>
       <c r="AH134">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AI134">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="AJ134">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AK134">
-        <v>2.89</v>
+        <v>2.76</v>
       </c>
       <c r="AL134">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AM134">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="AN134">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AO134">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ134">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR134">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT134">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="AU134">
-        <v>1.69</v>
+        <v>1.16</v>
       </c>
       <c r="AV134">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AW134">
-        <v>3.29</v>
+        <v>2.26</v>
       </c>
       <c r="AX134">
         <v>0</v>
@@ -26797,22 +26797,22 @@
         <v>0</v>
       </c>
       <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>13</v>
+      </c>
+      <c r="BI134">
         <v>8</v>
       </c>
-      <c r="BG134">
-        <v>7</v>
-      </c>
-      <c r="BH134">
-        <v>12</v>
-      </c>
-      <c r="BI134">
-        <v>9</v>
-      </c>
       <c r="BJ134">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BK134">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26820,7 +26820,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>3222327</v>
+        <v>3222321</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -26835,19 +26835,19 @@
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -26862,106 +26862,106 @@
         <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="Q135">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S135">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T135">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
         <v>2.5</v>
       </c>
       <c r="V135">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="W135">
+        <v>1.2</v>
+      </c>
+      <c r="X135">
+        <v>4</v>
+      </c>
+      <c r="Y135">
+        <v>2.03</v>
+      </c>
+      <c r="Z135">
+        <v>1.7</v>
+      </c>
+      <c r="AA135">
+        <v>4.1</v>
+      </c>
+      <c r="AB135">
         <v>1.19</v>
       </c>
-      <c r="X135">
-        <v>4.2</v>
-      </c>
-      <c r="Y135">
-        <v>2.04</v>
-      </c>
-      <c r="Z135">
-        <v>1.68</v>
-      </c>
-      <c r="AA135">
-        <v>4</v>
-      </c>
-      <c r="AB135">
-        <v>1.2</v>
-      </c>
       <c r="AC135">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="AD135">
         <v>3.75</v>
       </c>
       <c r="AE135">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AF135">
         <v>1.01</v>
       </c>
       <c r="AG135">
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="AH135">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AI135">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="AJ135">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AK135">
-        <v>2.76</v>
+        <v>2.45</v>
       </c>
       <c r="AL135">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AM135">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AN135">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AO135">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AP135">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AR135">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="AS135">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="AT135">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="AU135">
-        <v>1.16</v>
+        <v>1.69</v>
       </c>
       <c r="AV135">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AW135">
-        <v>2.26</v>
+        <v>3.39</v>
       </c>
       <c r="AX135">
         <v>0</v>
@@ -26979,7 +26979,7 @@
         <v>0</v>
       </c>
       <c r="BC135">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BD135">
         <v>0</v>
@@ -26988,22 +26988,22 @@
         <v>0</v>
       </c>
       <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
         <v>4</v>
       </c>
-      <c r="BG135">
+      <c r="BH135">
         <v>3</v>
       </c>
-      <c r="BH135">
-        <v>13</v>
-      </c>
       <c r="BI135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ135">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BK135">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['8', '14', '24', '72', '87', '90']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -836,9 +839,6 @@
   </si>
   <si>
     <t>['35', '49', '58', '70', '75']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['32', '82', '90+4']</t>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1459,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1841,7 +1841,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2223,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2414,7 +2414,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2796,7 +2796,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2987,7 +2987,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3178,7 +3178,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT12">
         <v>0.78</v>
@@ -3560,7 +3560,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3751,7 +3751,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3942,7 +3942,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4133,7 +4133,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4324,7 +4324,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4515,7 +4515,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4897,7 +4897,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5661,7 +5661,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5852,7 +5852,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6234,7 +6234,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT28">
         <v>0.5600000000000001</v>
@@ -6616,7 +6616,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6807,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6998,7 +6998,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7189,7 +7189,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7380,7 +7380,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7571,7 +7571,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7953,7 +7953,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8335,7 +8335,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8526,7 +8526,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9099,7 +9099,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9863,7 +9863,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9950,7 +9950,7 @@
         <v>0.67</v>
       </c>
       <c r="AS46">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT46">
         <v>1.09</v>
@@ -10054,7 +10054,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10436,7 +10436,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10627,7 +10627,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11009,7 +11009,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11200,7 +11200,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11582,7 +11582,7 @@
         <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11964,7 +11964,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12346,7 +12346,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12537,7 +12537,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12624,7 +12624,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT60">
         <v>1.2</v>
@@ -12919,7 +12919,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13301,7 +13301,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13492,7 +13492,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13683,7 +13683,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13874,7 +13874,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14638,7 +14638,7 @@
         <v>82</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14829,7 +14829,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15020,7 +15020,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15593,7 +15593,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15784,7 +15784,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15975,7 +15975,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16062,7 +16062,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -16166,7 +16166,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16548,7 +16548,7 @@
         <v>144</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16930,7 +16930,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17121,7 +17121,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17503,7 +17503,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17694,7 +17694,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17885,7 +17885,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18076,7 +18076,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18267,7 +18267,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18649,7 +18649,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19031,7 +19031,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>10</v>
@@ -19118,7 +19118,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT94">
         <v>1.18</v>
@@ -19222,7 +19222,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19604,7 +19604,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19795,7 +19795,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -19986,7 +19986,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20177,7 +20177,7 @@
         <v>118</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20368,7 +20368,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20559,7 +20559,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20750,7 +20750,7 @@
         <v>139</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20941,7 +20941,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21132,7 +21132,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21323,7 +21323,7 @@
         <v>82</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21514,7 +21514,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21896,7 +21896,7 @@
         <v>163</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21983,7 +21983,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT109">
         <v>2.18</v>
@@ -22087,7 +22087,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22469,7 +22469,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -23042,7 +23042,7 @@
         <v>127</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23233,7 +23233,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -24188,7 +24188,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24379,7 +24379,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24761,7 +24761,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24952,7 +24952,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25039,7 +25039,7 @@
         <v>1.3</v>
       </c>
       <c r="AS125">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT125">
         <v>1.33</v>
@@ -25143,7 +25143,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25334,7 +25334,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25716,7 +25716,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25907,7 +25907,7 @@
         <v>178</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26289,7 +26289,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -27626,7 +27626,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27904,7 +27904,7 @@
         <v>1.56</v>
       </c>
       <c r="AS140">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT140">
         <v>1.7</v>
@@ -28532,6 +28532,197 @@
       </c>
       <c r="BK143">
         <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>3222289</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>187</v>
+      </c>
+      <c r="P144" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>7</v>
+      </c>
+      <c r="T144">
+        <v>3.15</v>
+      </c>
+      <c r="U144">
+        <v>2.38</v>
+      </c>
+      <c r="V144">
+        <v>2.64</v>
+      </c>
+      <c r="W144">
+        <v>1.22</v>
+      </c>
+      <c r="X144">
+        <v>3.54</v>
+      </c>
+      <c r="Y144">
+        <v>2.24</v>
+      </c>
+      <c r="Z144">
+        <v>1.64</v>
+      </c>
+      <c r="AA144">
+        <v>4.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.17</v>
+      </c>
+      <c r="AC144">
+        <v>1.82</v>
+      </c>
+      <c r="AD144">
+        <v>4.86</v>
+      </c>
+      <c r="AE144">
+        <v>2.82</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>13</v>
+      </c>
+      <c r="AH144">
+        <v>1.14</v>
+      </c>
+      <c r="AI144">
+        <v>4.98</v>
+      </c>
+      <c r="AJ144">
+        <v>1.39</v>
+      </c>
+      <c r="AK144">
+        <v>2.5</v>
+      </c>
+      <c r="AL144">
+        <v>1.42</v>
+      </c>
+      <c r="AM144">
+        <v>2.65</v>
+      </c>
+      <c r="AN144">
+        <v>1.5</v>
+      </c>
+      <c r="AO144">
+        <v>1.25</v>
+      </c>
+      <c r="AP144">
+        <v>1.4</v>
+      </c>
+      <c r="AQ144">
+        <v>0.78</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>0.8</v>
+      </c>
+      <c r="AT144">
+        <v>1</v>
+      </c>
+      <c r="AU144">
+        <v>1.38</v>
+      </c>
+      <c r="AV144">
+        <v>1.23</v>
+      </c>
+      <c r="AW144">
+        <v>2.61</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>6</v>
+      </c>
+      <c r="BH144">
+        <v>6</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>14</v>
+      </c>
+      <c r="BK144">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
         <v>1.2</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT10" t="n">
         <v>1.18</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU16" t="n">
         <v>2.3</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.09</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.43</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>1.62</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.7</v>
@@ -6181,7 +6181,7 @@
         <v>0.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.01</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.18</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>2.18</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>2.16</v>
@@ -6993,7 +6993,7 @@
         <v>0.55</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU32" t="n">
         <v>1.82</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT33" t="n">
         <v>1.09</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT37" t="n">
         <v>1.2</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>1.35</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39" t="n">
         <v>2.01</v>
@@ -9223,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.64</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1.18</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.22</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU48" t="n">
         <v>0.98</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.76</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11050,10 +11050,10 @@
         <v>0.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU52" t="n">
         <v>1.39</v>
@@ -11256,7 +11256,7 @@
         <v>2.36</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.58</v>
@@ -11456,10 +11456,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU54" t="n">
         <v>1.71</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>2.18</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT59" t="n">
         <v>1.09</v>
@@ -12877,10 +12877,10 @@
         <v>1.2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.52</v>
@@ -13080,7 +13080,7 @@
         <v>1.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>2.36</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU63" t="n">
         <v>1.57</v>
@@ -13486,7 +13486,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT64" t="n">
         <v>1.18</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU65" t="n">
         <v>1.75</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.78</v>
@@ -14501,7 +14501,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT69" t="n">
         <v>1.09</v>
@@ -14704,10 +14704,10 @@
         <v>2.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.84</v>
@@ -14907,7 +14907,7 @@
         <v>1.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>1.7</v>
@@ -15316,7 +15316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU73" t="n">
         <v>1.81</v>
@@ -15519,7 +15519,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -15922,10 +15922,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.69</v>
@@ -16331,7 +16331,7 @@
         <v>0.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.6</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
         <v>1.33</v>
@@ -16734,7 +16734,7 @@
         <v>0.4</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -16937,10 +16937,10 @@
         <v>0.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU81" t="n">
         <v>1.03</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>0.82</v>
@@ -17343,7 +17343,7 @@
         <v>0.33</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.2</v>
@@ -17546,7 +17546,7 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>1.09</v>
@@ -17952,7 +17952,7 @@
         <v>0.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT86" t="n">
         <v>0.82</v>
@@ -18158,7 +18158,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.78</v>
@@ -18361,7 +18361,7 @@
         <v>1.91</v>
       </c>
       <c r="AT88" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU88" t="n">
         <v>1.67</v>
@@ -18767,7 +18767,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU91" t="n">
         <v>1.61</v>
@@ -19173,7 +19173,7 @@
         <v>2.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19373,7 +19373,7 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT93" t="n">
         <v>1.7</v>
@@ -19985,7 +19985,7 @@
         <v>0.55</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.32</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>1.09</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU98" t="n">
         <v>1.82</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT99" t="n">
         <v>2.18</v>
@@ -21200,7 +21200,7 @@
         <v>0.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT102" t="n">
         <v>1.2</v>
@@ -21403,7 +21403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.33</v>
@@ -21606,10 +21606,10 @@
         <v>1.13</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.17</v>
@@ -22218,7 +22218,7 @@
         <v>1.91</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.72</v>
@@ -22418,7 +22418,7 @@
         <v>1.44</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>1.33</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT110" t="n">
         <v>1.18</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU111" t="n">
         <v>1.36</v>
@@ -23639,7 +23639,7 @@
         <v>0.55</v>
       </c>
       <c r="AT114" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24042,10 +24042,10 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU116" t="n">
         <v>2.03</v>
@@ -24245,7 +24245,7 @@
         <v>0.89</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.82</v>
@@ -24448,7 +24448,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT118" t="n">
         <v>2.18</v>
@@ -24857,7 +24857,7 @@
         <v>0.55</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU120" t="n">
         <v>1.21</v>
@@ -25060,7 +25060,7 @@
         <v>1.91</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.75</v>
@@ -25666,10 +25666,10 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -26072,10 +26072,10 @@
         <v>0.88</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU126" t="n">
         <v>1</v>
@@ -26275,10 +26275,10 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT127" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>0.82</v>
@@ -26884,10 +26884,10 @@
         <v>1.88</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.02</v>
@@ -27087,10 +27087,10 @@
         <v>1.89</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU131" t="n">
         <v>1.72</v>
@@ -27293,7 +27293,7 @@
         <v>1.91</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU132" t="n">
         <v>1.82</v>
@@ -27493,7 +27493,7 @@
         <v>2.1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT133" t="n">
         <v>2.18</v>
@@ -27699,7 +27699,7 @@
         <v>0.55</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU134" t="n">
         <v>1.16</v>
@@ -28102,7 +28102,7 @@
         <v>1.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT136" t="n">
         <v>1.7</v>
@@ -28508,7 +28508,7 @@
         <v>1.2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT138" t="n">
         <v>1.18</v>
@@ -28711,10 +28711,10 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU139" t="n">
         <v>1.45</v>
@@ -29781,6 +29781,1427 @@
       </c>
       <c r="BK144" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3222344</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>23</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Manchester United U21</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Arsenal U21</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>5</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3222346</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>23</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Fulham U21</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Leicester City U21</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['34', '71']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['57', '88']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>4</v>
+      </c>
+      <c r="S146" t="n">
+        <v>8</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V146" t="n">
+        <v>5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X146" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3222345</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F147" t="n">
+        <v>23</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Everton U21</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wolves U21</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['8', '28', '32']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5</v>
+      </c>
+      <c r="S147" t="n">
+        <v>7</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3222347</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>23</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>West Ham United U21</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers U21</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['35', '41', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>8</v>
+      </c>
+      <c r="R148" t="n">
+        <v>6</v>
+      </c>
+      <c r="S148" t="n">
+        <v>14</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3222348</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45019.41666666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>23</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Liverpool U21</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Brighton U21</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['59', '75']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['48', '86']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>6</v>
+      </c>
+      <c r="R149" t="n">
+        <v>4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V149" t="n">
+        <v>4</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3222349</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45019.625</v>
+      </c>
+      <c r="F150" t="n">
+        <v>23</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Chelsea U21</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Crystal Palace U21</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['39', '69']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150" t="n">
+        <v>6</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X150" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3222350</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45019.625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>23</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur U21</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Manchester City U21</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['32', '65']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>11</v>
+      </c>
+      <c r="T151" t="n">
+        <v>4</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>1.2</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT10" t="n">
         <v>1.18</v>
@@ -2730,7 +2730,7 @@
         <v>1.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU16" t="n">
         <v>2.3</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>1.62</v>
@@ -5369,7 +5369,7 @@
         <v>1.91</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU24" t="n">
         <v>0.91</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT27" t="n">
         <v>1.7</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU39" t="n">
         <v>2.01</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT44" t="n">
         <v>1.18</v>
@@ -9832,7 +9832,7 @@
         <v>0.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT46" t="n">
         <v>1.09</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU48" t="n">
         <v>0.98</v>
@@ -10444,7 +10444,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10847,10 +10847,10 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU51" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>1.58</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU54" t="n">
         <v>1.71</v>
@@ -12674,7 +12674,7 @@
         <v>0.25</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT60" t="n">
         <v>1.2</v>
@@ -13080,7 +13080,7 @@
         <v>1.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>2.36</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.57</v>
@@ -13692,7 +13692,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU65" t="n">
         <v>1.75</v>
@@ -14098,7 +14098,7 @@
         <v>0.55</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.45</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT68" t="n">
         <v>1.25</v>
@@ -14501,7 +14501,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT69" t="n">
         <v>1.09</v>
@@ -15316,7 +15316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU73" t="n">
         <v>1.81</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU81" t="n">
         <v>1.03</v>
@@ -17546,7 +17546,7 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT84" t="n">
         <v>1.09</v>
@@ -17752,7 +17752,7 @@
         <v>2.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85" t="n">
         <v>1.62</v>
@@ -18361,7 +18361,7 @@
         <v>1.91</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU88" t="n">
         <v>1.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.58</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU91" t="n">
         <v>1.61</v>
@@ -19576,7 +19576,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT94" t="n">
         <v>1.18</v>
@@ -20391,7 +20391,7 @@
         <v>1.58</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU98" t="n">
         <v>1.82</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>2.18</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT109" t="n">
         <v>2.18</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT111" t="n">
         <v>0.8</v>
@@ -23436,7 +23436,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.7</v>
@@ -23639,7 +23639,7 @@
         <v>0.55</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT116" t="n">
         <v>2.1</v>
@@ -24857,7 +24857,7 @@
         <v>0.55</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU120" t="n">
         <v>1.21</v>
@@ -25869,7 +25869,7 @@
         <v>1.3</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT125" t="n">
         <v>1.33</v>
@@ -26275,10 +26275,10 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26481,7 +26481,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26681,7 +26681,7 @@
         <v>0.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT129" t="n">
         <v>0.82</v>
@@ -27090,7 +27090,7 @@
         <v>1.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU131" t="n">
         <v>1.72</v>
@@ -27293,7 +27293,7 @@
         <v>1.91</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU132" t="n">
         <v>1.82</v>
@@ -28308,7 +28308,7 @@
         <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU137" t="n">
         <v>1.07</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT139" t="n">
         <v>0.6</v>
@@ -28914,7 +28914,7 @@
         <v>1.56</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT140" t="n">
         <v>1.7</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.38</v>
@@ -29932,7 +29932,7 @@
         <v>1.45</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU145" t="n">
         <v>1.74</v>
@@ -30132,7 +30132,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT146" t="n">
         <v>0.6</v>
@@ -30338,7 +30338,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -30947,7 +30947,7 @@
         <v>1.58</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT151" t="n">
         <v>2.1</v>
@@ -31202,6 +31202,615 @@
       </c>
       <c r="BK151" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3222219</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45023.33333333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers U21</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Crystal Palace U21</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['82', '88', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>5</v>
+      </c>
+      <c r="R152" t="n">
+        <v>10</v>
+      </c>
+      <c r="S152" t="n">
+        <v>15</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3222292</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45023.375</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur U21</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Wolves U21</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>7</v>
+      </c>
+      <c r="S153" t="n">
+        <v>12</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3222221</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Fulham U21</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Arsenal U21</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['41', '52']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>5</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>6</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.58</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.7</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.92</v>
@@ -5572,7 +5572,7 @@
         <v>1.58</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.82</v>
@@ -10647,7 +10647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU50" t="n">
         <v>1.76</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.2</v>
@@ -14707,7 +14707,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU70" t="n">
         <v>1.84</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>2.18</v>
@@ -15925,7 +15925,7 @@
         <v>1.45</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU76" t="n">
         <v>1.69</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
         <v>2.17</v>
@@ -19985,7 +19985,7 @@
         <v>0.55</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU96" t="n">
         <v>1.32</v>
@@ -20794,7 +20794,7 @@
         <v>1.29</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1.18</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU106" t="n">
         <v>1.17</v>
@@ -22215,7 +22215,7 @@
         <v>0.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>0.6</v>
@@ -24045,7 +24045,7 @@
         <v>1.8</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU116" t="n">
         <v>2.03</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.25</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU130" t="n">
         <v>1.02</v>
@@ -27290,7 +27290,7 @@
         <v>0.88</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>0.73</v>
@@ -29117,7 +29117,7 @@
         <v>1.45</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1.33</v>
@@ -31150,7 +31150,7 @@
         <v>1.09</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU151" t="n">
         <v>1.51</v>
@@ -31811,6 +31811,209 @@
       </c>
       <c r="BK154" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3222220</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Brighton U21</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Manchester City U21</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['2', '32', '89']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['40', '68']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>7</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>12</v>
+      </c>
+      <c r="T155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division One U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT8" t="n">
         <v>2.18</v>
@@ -2527,7 +2527,7 @@
         <v>1.09</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT22" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU29" t="n">
         <v>0.77</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -9429,7 +9429,7 @@
         <v>1.8</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU44" t="n">
         <v>1.81</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT50" t="n">
         <v>1.91</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT58" t="n">
         <v>0.82</v>
@@ -13489,7 +13489,7 @@
         <v>1.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU64" t="n">
         <v>1.77</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6</v>
@@ -16128,7 +16128,7 @@
         <v>1.8</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -18155,7 +18155,7 @@
         <v>0.86</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT87" t="n">
         <v>1.25</v>
@@ -19579,7 +19579,7 @@
         <v>0.73</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU94" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100" t="n">
         <v>1.6</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT105" t="n">
         <v>1.7</v>
@@ -22827,7 +22827,7 @@
         <v>1.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT113" t="n">
         <v>0.92</v>
@@ -25260,7 +25260,7 @@
         <v>1.22</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT122" t="n">
         <v>1.09</v>
@@ -25466,7 +25466,7 @@
         <v>2.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -28511,7 +28511,7 @@
         <v>1.58</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT143" t="n">
         <v>1.2</v>
@@ -32014,6 +32014,209 @@
       </c>
       <c r="BK155" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3222222</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division One U23</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45026.625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Wolves U21</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Everton U21</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>5</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['10', '28', '40', '55', '80']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>9</v>
+      </c>
+      <c r="S156" t="n">
+        <v>13</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
